--- a/teaching/traditional_assets/database/data/south_africa/south_africa_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/south_africa/south_africa_investments_asset_management.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.112</v>
+        <v>0.175</v>
       </c>
       <c r="E2">
-        <v>0.174</v>
+        <v>-0.05110000000000001</v>
       </c>
       <c r="F2">
-        <v>0.17</v>
+        <v>0.0287</v>
       </c>
       <c r="G2">
-        <v>0.1266435375911775</v>
+        <v>0.2134368422297377</v>
       </c>
       <c r="H2">
-        <v>0.1253775927206792</v>
+        <v>0.2119364210748455</v>
       </c>
       <c r="I2">
-        <v>0.1438616164060826</v>
+        <v>0.235107485134676</v>
       </c>
       <c r="J2">
-        <v>0.1271724733878237</v>
+        <v>0.1806606680311819</v>
       </c>
       <c r="K2">
-        <v>79.21300000000001</v>
+        <v>554.453</v>
       </c>
       <c r="L2">
-        <v>0.04365663518797656</v>
+        <v>0.2521712672305109</v>
       </c>
       <c r="M2">
-        <v>239.958</v>
+        <v>351.94</v>
       </c>
       <c r="N2">
-        <v>0.06488157040882543</v>
+        <v>0.05812674451252746</v>
       </c>
       <c r="O2">
-        <v>3.029275497708709</v>
+        <v>0.6347517282799444</v>
       </c>
       <c r="P2">
-        <v>185.553</v>
+        <v>269.44</v>
       </c>
       <c r="Q2">
-        <v>0.05017115509409474</v>
+        <v>0.04450096619155367</v>
       </c>
       <c r="R2">
-        <v>2.342456414982389</v>
+        <v>0.4859564291292499</v>
       </c>
       <c r="S2">
-        <v>54.405</v>
+        <v>82.49999999999999</v>
       </c>
       <c r="T2">
-        <v>0.2267271772560198</v>
+        <v>0.2344149570949593</v>
       </c>
       <c r="U2">
-        <v>576.567</v>
+        <v>876.322</v>
       </c>
       <c r="V2">
-        <v>0.1558963335496431</v>
+        <v>0.144734173452029</v>
       </c>
       <c r="W2">
-        <v>0.05828045635695866</v>
+        <v>0.07355296365842909</v>
       </c>
       <c r="X2">
-        <v>0.06424893224455117</v>
+        <v>0.05328896981366348</v>
       </c>
       <c r="Y2">
-        <v>-0.005968475887592507</v>
+        <v>0.02026399384476561</v>
       </c>
       <c r="Z2">
-        <v>0.5383486332336517</v>
+        <v>0.8422985634542419</v>
       </c>
       <c r="AA2">
-        <v>0.06297703379051912</v>
+        <v>0.04897104556987893</v>
       </c>
       <c r="AB2">
-        <v>0.06009480818858355</v>
+        <v>0.05230179606210265</v>
       </c>
       <c r="AC2">
-        <v>-0.002249089923607003</v>
+        <v>-0.009689727041785345</v>
       </c>
       <c r="AD2">
-        <v>1189.962</v>
+        <v>989.231</v>
       </c>
       <c r="AE2">
-        <v>150.6778540195075</v>
+        <v>0.1770535731290208</v>
       </c>
       <c r="AF2">
-        <v>1340.639854019508</v>
+        <v>989.408053573129</v>
       </c>
       <c r="AG2">
-        <v>764.0728540195075</v>
+        <v>113.086053573129</v>
       </c>
       <c r="AH2">
-        <v>0.2660506550568587</v>
+        <v>0.1404589546395801</v>
       </c>
       <c r="AI2">
-        <v>0.3368678960317934</v>
+        <v>0.2870755089480703</v>
       </c>
       <c r="AJ2">
-        <v>0.1712218491886802</v>
+        <v>0.01833495075718715</v>
       </c>
       <c r="AK2">
-        <v>0.2245191111874541</v>
+        <v>0.04399917018299679</v>
       </c>
       <c r="AL2">
-        <v>96.878</v>
+        <v>75.175</v>
       </c>
       <c r="AM2">
-        <v>-518.9989999999999</v>
+        <v>-805.088</v>
       </c>
       <c r="AN2">
-        <v>4.786229698095904</v>
+        <v>2.166629432996916</v>
       </c>
       <c r="AO2">
-        <v>2.671710811536159</v>
+        <v>6.874373129364817</v>
       </c>
       <c r="AP2">
-        <v>3.073231065712236</v>
+        <v>0.2476828689487161</v>
       </c>
       <c r="AQ2">
-        <v>-0.498710016782306</v>
+        <v>-0.6418938053976709</v>
       </c>
     </row>
     <row r="3">
@@ -728,46 +728,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.07240000000000001</v>
+        <v>-0.0394</v>
       </c>
       <c r="E3">
-        <v>-0.0978</v>
+        <v>-0.05110000000000001</v>
       </c>
       <c r="G3">
-        <v>0.4617848970251717</v>
+        <v>0.4747841890049977</v>
       </c>
       <c r="H3">
-        <v>0.4617848970251717</v>
+        <v>0.4747841890049977</v>
       </c>
       <c r="I3">
-        <v>0.4564376523135347</v>
+        <v>0.4716038164470695</v>
       </c>
       <c r="J3">
-        <v>0.3456135390358722</v>
+        <v>0.3607143554892498</v>
       </c>
       <c r="K3">
-        <v>78.90000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="L3">
-        <v>0.3610983981693364</v>
+        <v>0.3798273512039982</v>
       </c>
       <c r="M3">
-        <v>83.5</v>
+        <v>74.2</v>
       </c>
       <c r="N3">
-        <v>0.0836086912986883</v>
+        <v>0.07200388161086851</v>
       </c>
       <c r="O3">
-        <v>1.05830164765526</v>
+        <v>0.8875598086124403</v>
       </c>
       <c r="P3">
-        <v>83.5</v>
+        <v>74.2</v>
       </c>
       <c r="Q3">
-        <v>0.0836086912986883</v>
+        <v>0.07200388161086851</v>
       </c>
       <c r="R3">
-        <v>1.05830164765526</v>
+        <v>0.8875598086124403</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -776,73 +776,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>45</v>
+        <v>31.1</v>
       </c>
       <c r="V3">
-        <v>0.04505857614899369</v>
+        <v>0.03017952450266861</v>
       </c>
       <c r="W3">
-        <v>0.5316711590296496</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="X3">
-        <v>0.0605258103976174</v>
+        <v>0.05224980869700029</v>
       </c>
       <c r="Y3">
-        <v>0.4711453486320322</v>
+        <v>0.5707010109751309</v>
       </c>
       <c r="Z3">
-        <v>4.905497350599668</v>
+        <v>5.916666666666666</v>
       </c>
       <c r="AA3">
-        <v>1.695406300071846</v>
+        <v>2.134226603311395</v>
       </c>
       <c r="AB3">
-        <v>0.05977133195842193</v>
+        <v>0.05162424504005186</v>
       </c>
       <c r="AC3">
-        <v>1.635634968113424</v>
+        <v>2.082602358271343</v>
       </c>
       <c r="AD3">
-        <v>19.8</v>
+        <v>34.5</v>
       </c>
       <c r="AE3">
-        <v>8.941864847463364</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>28.74186484746336</v>
+        <v>34.5</v>
       </c>
       <c r="AG3">
-        <v>-16.25813515253664</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.02797420061497149</v>
+        <v>0.0323943661971831</v>
       </c>
       <c r="AI3">
-        <v>0.1664825902619742</v>
+        <v>0.1997683844817603</v>
       </c>
       <c r="AJ3">
-        <v>-0.01654869945415133</v>
+        <v>0.003288519199148852</v>
       </c>
       <c r="AK3">
-        <v>-0.1273730619022661</v>
+        <v>0.02401129943502824</v>
       </c>
       <c r="AL3">
-        <v>1.58</v>
+        <v>2.52</v>
       </c>
       <c r="AM3">
-        <v>-177.02</v>
+        <v>-160.68</v>
       </c>
       <c r="AN3">
-        <v>0.1933216168717047</v>
+        <v>0.3301435406698565</v>
       </c>
       <c r="AO3">
-        <v>63.29113924050633</v>
+        <v>41.19047619047619</v>
       </c>
       <c r="AP3">
-        <v>-0.1587398472225799</v>
+        <v>0.0325358851674641</v>
       </c>
       <c r="AQ3">
-        <v>-0.5649079200090386</v>
+        <v>-0.6460044809559373</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +853,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anchor Group Limited (JSE:ACG)</t>
+          <t>Sygnia Limited (JSE:SYG)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -862,121 +862,121 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.586</v>
+        <v>0.231</v>
       </c>
       <c r="E4">
-        <v>0.406</v>
+        <v>0.283</v>
       </c>
       <c r="G4">
-        <v>0.2242857142857143</v>
+        <v>0.4393939393939393</v>
       </c>
       <c r="H4">
-        <v>0.2242857142857143</v>
+        <v>0.4393939393939393</v>
       </c>
       <c r="I4">
-        <v>0.3</v>
+        <v>0.4217171717171717</v>
       </c>
       <c r="J4">
-        <v>0.2794285714285714</v>
+        <v>0.2916482238111451</v>
       </c>
       <c r="K4">
-        <v>3.53</v>
+        <v>12.4</v>
       </c>
       <c r="L4">
-        <v>0.1008571428571429</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="M4">
-        <v>3.665</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="N4">
-        <v>0.0582670906200318</v>
+        <v>0.04338055691255496</v>
       </c>
       <c r="O4">
-        <v>1.038243626062323</v>
+        <v>0.7161290322580646</v>
       </c>
       <c r="P4">
-        <v>2.95</v>
+        <v>6.36</v>
       </c>
       <c r="Q4">
-        <v>0.04689984101748808</v>
+        <v>0.03106985832926234</v>
       </c>
       <c r="R4">
-        <v>0.8356940509915015</v>
+        <v>0.5129032258064516</v>
       </c>
       <c r="S4">
-        <v>0.7149999999999999</v>
+        <v>2.52</v>
       </c>
       <c r="T4">
-        <v>0.1950886766712142</v>
+        <v>0.2837837837837838</v>
       </c>
       <c r="U4">
-        <v>8.039999999999999</v>
+        <v>15.6</v>
       </c>
       <c r="V4">
-        <v>0.1278219395866454</v>
+        <v>0.07620908646800195</v>
       </c>
       <c r="W4">
-        <v>0.0526865671641791</v>
+        <v>0.2938388625592417</v>
       </c>
       <c r="X4">
-        <v>0.05968687854452819</v>
+        <v>0.05337782458597751</v>
       </c>
       <c r="Y4">
-        <v>-0.007000311380349081</v>
+        <v>0.2404610379732642</v>
       </c>
       <c r="Z4">
-        <v>1.868659903897491</v>
+        <v>1.198910081743869</v>
       </c>
       <c r="AA4">
-        <v>0.5221569674319274</v>
+        <v>0.3496599958498742</v>
       </c>
       <c r="AB4">
-        <v>0.05968687854452819</v>
+        <v>0.0520257992076734</v>
       </c>
       <c r="AC4">
-        <v>0.4624700888873992</v>
+        <v>0.2976341966422008</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG4">
-        <v>-8.039999999999999</v>
+        <v>-1.1</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.06614963503649636</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.2561837455830389</v>
       </c>
       <c r="AJ4">
-        <v>-0.1465548669340138</v>
+        <v>-0.005402750491159134</v>
       </c>
       <c r="AK4">
-        <v>-0.1347636607442172</v>
+        <v>-0.02682926829268292</v>
       </c>
       <c r="AL4">
-        <v>0.11</v>
+        <v>0.984</v>
       </c>
       <c r="AM4">
-        <v>-0.4490000000000001</v>
+        <v>-677.4159999999999</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AO4">
-        <v>95.45454545454545</v>
+        <v>16.97154471544716</v>
       </c>
       <c r="AP4">
-        <v>-0.711504424778761</v>
+        <v>-0.06321839080459768</v>
       </c>
       <c r="AQ4">
-        <v>-23.38530066815144</v>
+        <v>-0.02465250304096744</v>
       </c>
     </row>
     <row r="5">
@@ -987,7 +987,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Efficient Group Limited (JSE:EFG)</t>
+          <t>RH Bophelo Limited (JSE:RHB)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -995,122 +995,107 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.357</v>
-      </c>
-      <c r="E5">
-        <v>0.367</v>
-      </c>
       <c r="G5">
-        <v>0.1075070821529745</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.1075070821529745</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.09220963172804533</v>
+        <v>0.8714285714285714</v>
       </c>
       <c r="J5">
-        <v>0.0706152393404518</v>
+        <v>0.6750234448265083</v>
       </c>
       <c r="K5">
-        <v>1.88</v>
+        <v>7.08</v>
       </c>
       <c r="L5">
-        <v>0.02662889518413598</v>
+        <v>0.6742857142857143</v>
       </c>
       <c r="M5">
-        <v>0.523</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.01432876712328767</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.2781914893617021</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>0.433</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.01186301369863014</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.2303191489361702</v>
+        <v>-0</v>
       </c>
       <c r="S5">
-        <v>0.09000000000000002</v>
-      </c>
-      <c r="T5">
-        <v>0.1720841300191205</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>5.67</v>
+        <v>2.6</v>
       </c>
       <c r="V5">
-        <v>0.1553424657534247</v>
+        <v>0.0736543909348442</v>
       </c>
       <c r="W5">
-        <v>0.2550881953867029</v>
+        <v>0.184375</v>
       </c>
       <c r="X5">
-        <v>0.07925368779180153</v>
+        <v>0.05123888023031327</v>
       </c>
       <c r="Y5">
-        <v>0.1758345075949013</v>
+        <v>0.1331361197696868</v>
       </c>
       <c r="Z5">
-        <v>4.352651048088779</v>
+        <v>0.5</v>
       </c>
       <c r="AA5">
-        <v>0.3073634955262575</v>
+        <v>0.3375117224132542</v>
       </c>
       <c r="AB5">
-        <v>0.06373338491984654</v>
+        <v>0.05123888023031327</v>
       </c>
       <c r="AC5">
-        <v>0.243630110606411</v>
+        <v>0.286272842182941</v>
       </c>
       <c r="AD5">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>18.83</v>
+        <v>-2.6</v>
       </c>
       <c r="AH5">
-        <v>0.4016393442622951</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.7383966244725738</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.3403217061268751</v>
+        <v>-0.07951070336391439</v>
       </c>
       <c r="AK5">
-        <v>0.6844783715012722</v>
+        <v>-0.06190476190476191</v>
       </c>
       <c r="AL5">
-        <v>2.75</v>
+        <v>0.012</v>
       </c>
       <c r="AM5">
-        <v>2.303</v>
-      </c>
-      <c r="AN5">
-        <v>3.227931488801054</v>
+        <v>0.012</v>
       </c>
       <c r="AO5">
-        <v>2.367272727272727</v>
-      </c>
-      <c r="AP5">
-        <v>2.480895915678524</v>
+        <v>762.5</v>
       </c>
       <c r="AQ5">
-        <v>2.826747720364742</v>
+        <v>762.5</v>
       </c>
     </row>
     <row r="6">
@@ -1121,7 +1106,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sygnia Limited (JSE:SYG)</t>
+          <t>Purple Group Limited (JSE:PPE)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1130,121 +1115,118 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.251</v>
+        <v>0.0436</v>
       </c>
       <c r="E6">
-        <v>0.268</v>
+        <v>-0.133</v>
       </c>
       <c r="G6">
-        <v>0.3582089552238806</v>
+        <v>0.2436325678496868</v>
       </c>
       <c r="H6">
-        <v>0.3582089552238806</v>
+        <v>0.1784968684759916</v>
       </c>
       <c r="I6">
-        <v>0.3488940706472206</v>
+        <v>0.1711899791231733</v>
       </c>
       <c r="J6">
-        <v>0.2416091439232002</v>
+        <v>0.1235013420817179</v>
       </c>
       <c r="K6">
-        <v>8.31</v>
+        <v>0.851</v>
       </c>
       <c r="L6">
-        <v>0.2480597014925373</v>
+        <v>0.08883089770354906</v>
       </c>
       <c r="M6">
-        <v>7.58</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.0697974217311234</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.9121540312876052</v>
+        <v>-0</v>
       </c>
       <c r="P6">
-        <v>5.78</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.05322283609576428</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.6955475330926595</v>
+        <v>-0</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
-      </c>
-      <c r="T6">
-        <v>0.237467018469657</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>11.5</v>
+        <v>13.3</v>
       </c>
       <c r="V6">
-        <v>0.1058931860036832</v>
+        <v>0.2250423011844332</v>
       </c>
       <c r="W6">
-        <v>0.1880090497737557</v>
+        <v>0.04727777777777778</v>
       </c>
       <c r="X6">
-        <v>0.06355489466529859</v>
+        <v>0.05375776769673492</v>
       </c>
       <c r="Y6">
-        <v>0.1244541551084571</v>
+        <v>-0.006479989918957138</v>
       </c>
       <c r="Z6">
-        <v>0.9487332002204008</v>
+        <v>2.16252821670429</v>
       </c>
       <c r="AA6">
-        <v>0.2292226163167691</v>
+        <v>0.2670751370525638</v>
       </c>
       <c r="AB6">
-        <v>0.06004054148806941</v>
+        <v>0.05252069902688824</v>
       </c>
       <c r="AC6">
-        <v>0.1691820748286997</v>
+        <v>0.2145544380256756</v>
       </c>
       <c r="AD6">
-        <v>12.2</v>
+        <v>4.93</v>
       </c>
       <c r="AE6">
-        <v>2.210243166590561</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>14.41024316659056</v>
+        <v>4.93</v>
       </c>
       <c r="AG6">
-        <v>2.910243166590561</v>
+        <v>-8.370000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.1171466927926891</v>
+        <v>0.07699515851944401</v>
       </c>
       <c r="AI6">
-        <v>0.2545518683639041</v>
+        <v>0.2043099875673436</v>
       </c>
       <c r="AJ6">
-        <v>0.02609843799051544</v>
+        <v>-0.1649911295091662</v>
       </c>
       <c r="AK6">
-        <v>0.06451402081436658</v>
+        <v>-0.772853185595568</v>
       </c>
       <c r="AL6">
-        <v>0.8179999999999999</v>
+        <v>0.531</v>
       </c>
       <c r="AM6">
-        <v>-395.582</v>
+        <v>0.454</v>
       </c>
       <c r="AN6">
-        <v>0.950896336710834</v>
+        <v>2.883040935672514</v>
       </c>
       <c r="AO6">
-        <v>13.81418092909536</v>
+        <v>3.088512241054614</v>
       </c>
       <c r="AP6">
-        <v>0.2268311119712051</v>
+        <v>-4.894736842105264</v>
       </c>
       <c r="AQ6">
-        <v>-0.02856550601392379</v>
+        <v>3.612334801762114</v>
       </c>
     </row>
     <row r="7">
@@ -1263,41 +1245,47 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D7">
+        <v>0.175</v>
+      </c>
+      <c r="E7">
+        <v>0.08169999999999999</v>
+      </c>
       <c r="G7">
-        <v>0.35</v>
+        <v>0.3141304347826087</v>
       </c>
       <c r="H7">
-        <v>0.35</v>
+        <v>0.3141304347826087</v>
       </c>
       <c r="I7">
-        <v>0.3080386008096536</v>
+        <v>0.2423913043478261</v>
       </c>
       <c r="J7">
-        <v>0.2265469074737664</v>
+        <v>0.1915656750572083</v>
       </c>
       <c r="K7">
-        <v>4.09</v>
+        <v>3.71</v>
       </c>
       <c r="L7">
-        <v>0.2086734693877551</v>
+        <v>0.2016304347826087</v>
       </c>
       <c r="M7">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>0.06153846153846153</v>
+        <v>0.05147058823529412</v>
       </c>
       <c r="O7">
-        <v>0.5672371638141809</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="P7">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="Q7">
-        <v>0.06153846153846153</v>
+        <v>0.05147058823529412</v>
       </c>
       <c r="R7">
-        <v>0.5672371638141809</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1306,73 +1294,73 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>7.01</v>
+        <v>11.2</v>
       </c>
       <c r="V7">
-        <v>0.1859416445623342</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="W7">
-        <v>0.1381756756756757</v>
+        <v>0.1220394736842105</v>
       </c>
       <c r="X7">
-        <v>0.06658188666903096</v>
+        <v>0.05649357522387605</v>
       </c>
       <c r="Y7">
-        <v>0.07159378900664469</v>
+        <v>0.06554589846033448</v>
       </c>
       <c r="Z7">
-        <v>0.8208661797126212</v>
+        <v>0.6930320150659134</v>
       </c>
       <c r="AA7">
-        <v>0.1859646944636993</v>
+        <v>0.132761145802359</v>
       </c>
       <c r="AB7">
-        <v>0.06161407938612198</v>
+        <v>0.05415264376475301</v>
       </c>
       <c r="AC7">
-        <v>0.1243506150775773</v>
+        <v>0.078608502037606</v>
       </c>
       <c r="AD7">
-        <v>8.859999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="AE7">
-        <v>0.057217120653946</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>8.917217120653945</v>
+        <v>7.1</v>
       </c>
       <c r="AG7">
-        <v>1.907217120653945</v>
+        <v>-4.1</v>
       </c>
       <c r="AH7">
-        <v>0.1912859169086508</v>
+        <v>0.1482254697286013</v>
       </c>
       <c r="AI7">
-        <v>0.2273801604336083</v>
+        <v>0.1961325966850828</v>
       </c>
       <c r="AJ7">
-        <v>0.04815327254232637</v>
+        <v>-0.111716621253406</v>
       </c>
       <c r="AK7">
-        <v>0.05921707279176501</v>
+        <v>-0.164</v>
       </c>
       <c r="AL7">
-        <v>0.877</v>
+        <v>0.678</v>
       </c>
       <c r="AM7">
-        <v>0.272</v>
+        <v>0.04800000000000004</v>
       </c>
       <c r="AN7">
-        <v>1.438545218379607</v>
+        <v>1.546840958605664</v>
       </c>
       <c r="AO7">
-        <v>6.864310148232611</v>
+        <v>6.578171091445427</v>
       </c>
       <c r="AP7">
-        <v>0.3096634389761235</v>
+        <v>-0.8932461873638343</v>
       </c>
       <c r="AQ7">
-        <v>22.13235294117647</v>
+        <v>92.91666666666659</v>
       </c>
     </row>
     <row r="8">
@@ -1383,7 +1371,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Stellar Capital Partners Limited (JSE:SCP)</t>
+          <t>Anchor Group Limited (JSE:ACG)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1391,113 +1379,122 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D8">
+        <v>0.256</v>
+      </c>
+      <c r="E8">
+        <v>-0.148</v>
+      </c>
       <c r="G8">
-        <v>0.9095238095238096</v>
+        <v>0.3747933884297521</v>
       </c>
       <c r="H8">
-        <v>0.9095238095238096</v>
+        <v>0.3747933884297521</v>
       </c>
       <c r="I8">
-        <v>0.9095238095238096</v>
+        <v>0.1049586776859504</v>
       </c>
       <c r="J8">
-        <v>0.9095238095238096</v>
+        <v>0.06769074140615643</v>
       </c>
       <c r="K8">
-        <v>11.5</v>
+        <v>1.2</v>
       </c>
       <c r="L8">
-        <v>0.5476190476190477</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>2.532</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.04171334431630972</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>2.11</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>1.92</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.03163097199341021</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>1.6</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.6120000000000001</v>
+      </c>
+      <c r="T8">
+        <v>0.2417061611374408</v>
       </c>
       <c r="U8">
-        <v>5.11</v>
+        <v>4.22</v>
       </c>
       <c r="V8">
-        <v>0.08349673202614379</v>
+        <v>0.06952224052718287</v>
       </c>
       <c r="W8">
-        <v>0.1439299123904881</v>
+        <v>0.01804511278195488</v>
       </c>
       <c r="X8">
-        <v>0.05968687854452819</v>
+        <v>0.05148014970274202</v>
       </c>
       <c r="Y8">
-        <v>0.08424303384595992</v>
+        <v>-0.03343503692078714</v>
       </c>
       <c r="Z8">
-        <v>0.1694231544977814</v>
+        <v>1.452581032412965</v>
       </c>
       <c r="AA8">
-        <v>0.1540943929003631</v>
+        <v>0.09832628703655373</v>
       </c>
       <c r="AB8">
-        <v>0.05968687854452819</v>
+        <v>0.05133317754830715</v>
       </c>
       <c r="AC8">
-        <v>0.09440751435583487</v>
+        <v>0.04699310948824658</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.485</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.485</v>
       </c>
       <c r="AG8">
-        <v>-5.11</v>
+        <v>-3.735</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.007926779439405082</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.008525973455216666</v>
       </c>
       <c r="AJ8">
-        <v>-0.09110358352647531</v>
+        <v>-0.06556657596769946</v>
       </c>
       <c r="AK8">
-        <v>-0.05928762037359323</v>
+        <v>-0.07091996582170322</v>
       </c>
       <c r="AL8">
-        <v>6.26</v>
+        <v>0.145</v>
       </c>
       <c r="AM8">
-        <v>6.26</v>
+        <v>-0.5619999999999999</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>0.1336088154269972</v>
       </c>
       <c r="AO8">
-        <v>3.05111821086262</v>
+        <v>17.51724137931035</v>
       </c>
       <c r="AP8">
-        <v>-0.2675392670157068</v>
+        <v>-1.028925619834711</v>
       </c>
       <c r="AQ8">
-        <v>3.05111821086262</v>
+        <v>-4.519572953736655</v>
       </c>
     </row>
     <row r="9">
@@ -1508,7 +1505,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Long4life Limited (JSE:L4L)</t>
+          <t>African Equity Empowerment Investments Limited (JSE:AEE)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1516,116 +1513,122 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D9">
+        <v>0.385</v>
+      </c>
+      <c r="E9">
+        <v>-0.421</v>
+      </c>
       <c r="G9">
-        <v>0.1406551059730251</v>
+        <v>-0.01409113422486379</v>
       </c>
       <c r="H9">
-        <v>0.1406551059730251</v>
+        <v>-0.01421495789995047</v>
       </c>
       <c r="I9">
-        <v>0.1262258119952742</v>
+        <v>-0.03876379749690839</v>
       </c>
       <c r="J9">
-        <v>0.08947652495867535</v>
+        <v>-0.0193818987484542</v>
       </c>
       <c r="K9">
-        <v>21.9</v>
+        <v>0.588</v>
       </c>
       <c r="L9">
-        <v>0.08439306358381503</v>
+        <v>0.002912332838038633</v>
       </c>
       <c r="M9">
-        <v>17.7</v>
+        <v>4.646</v>
       </c>
       <c r="N9">
-        <v>0.07593307593307594</v>
+        <v>0.1489102564102564</v>
       </c>
       <c r="O9">
-        <v>0.8082191780821918</v>
+        <v>7.901360544217687</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>4.63</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.1483974358974359</v>
       </c>
       <c r="R9">
-        <v>-0</v>
+        <v>7.874149659863946</v>
       </c>
       <c r="S9">
-        <v>17.7</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0.003443822643133882</v>
       </c>
       <c r="U9">
-        <v>57.3</v>
+        <v>197.8</v>
       </c>
       <c r="V9">
-        <v>0.2458172458172458</v>
+        <v>6.33974358974359</v>
       </c>
       <c r="W9">
-        <v>0.06786488999070343</v>
+        <v>0.002697247706422018</v>
       </c>
       <c r="X9">
-        <v>0.07166999526326134</v>
+        <v>0.05878502705999313</v>
       </c>
       <c r="Y9">
-        <v>-0.00380510527255791</v>
+        <v>-0.05608777935357111</v>
       </c>
       <c r="Z9">
-        <v>1.713527189866057</v>
+        <v>-5.160654256381062</v>
       </c>
       <c r="AA9">
-        <v>0.1533204583714191</v>
+        <v>0.1000232782729569</v>
       </c>
       <c r="AB9">
-        <v>0.06056637048189455</v>
+        <v>0.05674482454358117</v>
       </c>
       <c r="AC9">
-        <v>0.09275408788952455</v>
+        <v>0.04327845372937576</v>
       </c>
       <c r="AD9">
-        <v>53.1</v>
+        <v>7.62</v>
       </c>
       <c r="AE9">
-        <v>42.72200893613173</v>
+        <v>0.1770535731290208</v>
       </c>
       <c r="AF9">
-        <v>95.82200893613174</v>
+        <v>7.797053573129021</v>
       </c>
       <c r="AG9">
-        <v>38.52200893613174</v>
+        <v>-190.002946426871</v>
       </c>
       <c r="AH9">
-        <v>0.2913213659555932</v>
+        <v>0.1999395559079261</v>
       </c>
       <c r="AI9">
-        <v>0.2324524330552619</v>
+        <v>0.02099950295348451</v>
       </c>
       <c r="AJ9">
-        <v>0.1418221192274212</v>
+        <v>1.19646990627071</v>
       </c>
       <c r="AK9">
-        <v>0.1085365459628732</v>
+        <v>-1.095136444762647</v>
       </c>
       <c r="AL9">
-        <v>3.16</v>
+        <v>1.46</v>
       </c>
       <c r="AM9">
-        <v>-2.1</v>
+        <v>-13.14</v>
       </c>
       <c r="AN9">
-        <v>1.132196162046908</v>
+        <v>-2.842223051100336</v>
       </c>
       <c r="AO9">
-        <v>9.30379746835443</v>
+        <v>-5.465753424657534</v>
       </c>
       <c r="AP9">
-        <v>0.821364796079568</v>
+        <v>70.87017770491271</v>
       </c>
       <c r="AQ9">
-        <v>-14</v>
+        <v>0.6073059360730594</v>
       </c>
     </row>
     <row r="10">
@@ -1636,7 +1639,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Peregrine Holdings Limited (JSE:PGR)</t>
+          <t>Long4life Limited (JSE:L4L)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1644,122 +1647,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D10">
-        <v>-0.07829999999999999</v>
-      </c>
-      <c r="E10">
-        <v>-0.0931</v>
-      </c>
       <c r="G10">
-        <v>0.3192272309107636</v>
+        <v>0.1690531177829099</v>
       </c>
       <c r="H10">
-        <v>0.3192272309107636</v>
+        <v>0.1690531177829099</v>
       </c>
       <c r="I10">
-        <v>0.2522144383766809</v>
+        <v>0.08914549653579677</v>
       </c>
       <c r="J10">
-        <v>0.1978763470198516</v>
+        <v>0.06538844796661236</v>
       </c>
       <c r="K10">
-        <v>20.3</v>
+        <v>14.1</v>
       </c>
       <c r="L10">
-        <v>0.1867525298988041</v>
+        <v>0.0651270207852194</v>
       </c>
       <c r="M10">
-        <v>46.8</v>
+        <v>25.4</v>
       </c>
       <c r="N10">
-        <v>0.170367673825992</v>
+        <v>0.1510107015457788</v>
       </c>
       <c r="O10">
-        <v>2.305418719211823</v>
+        <v>1.801418439716312</v>
       </c>
       <c r="P10">
-        <v>37.7</v>
+        <v>-0</v>
       </c>
       <c r="Q10">
-        <v>0.1372406261376047</v>
+        <v>-0</v>
       </c>
       <c r="R10">
-        <v>1.857142857142857</v>
+        <v>-0</v>
       </c>
       <c r="S10">
-        <v>9.100000000000001</v>
+        <v>25.4</v>
       </c>
       <c r="T10">
-        <v>0.1944444444444444</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>34.3</v>
+        <v>48.4</v>
       </c>
       <c r="V10">
-        <v>0.1248634874408446</v>
+        <v>0.2877526753864447</v>
       </c>
       <c r="W10">
-        <v>0.1378139850644942</v>
+        <v>0.04516335682254965</v>
       </c>
       <c r="X10">
-        <v>0.06476158466494873</v>
+        <v>0.0582762343065342</v>
       </c>
       <c r="Y10">
-        <v>0.07305240039954548</v>
+        <v>-0.01311287748398455</v>
       </c>
       <c r="Z10">
-        <v>0.656712457503934</v>
+        <v>1.365069356872636</v>
       </c>
       <c r="AA10">
-        <v>0.129947862133308</v>
+        <v>0.08925976661268333</v>
       </c>
       <c r="AB10">
-        <v>0.06013451318026119</v>
+        <v>0.05348731287142781</v>
       </c>
       <c r="AC10">
-        <v>0.06981334895304681</v>
+        <v>0.03577245374125552</v>
       </c>
       <c r="AD10">
-        <v>27.1</v>
+        <v>39.2</v>
       </c>
       <c r="AE10">
-        <v>20.72145274227394</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>47.82145274227394</v>
+        <v>39.2</v>
       </c>
       <c r="AG10">
-        <v>13.52145274227394</v>
+        <v>-9.199999999999996</v>
       </c>
       <c r="AH10">
-        <v>0.1482737112079423</v>
+        <v>0.1890067502410801</v>
       </c>
       <c r="AI10">
-        <v>0.2801139046916769</v>
+        <v>0.1248805352022937</v>
       </c>
       <c r="AJ10">
-        <v>0.04691341540896594</v>
+        <v>-0.05786163522012576</v>
       </c>
       <c r="AK10">
-        <v>0.09911529653491184</v>
+        <v>-0.03465160075329565</v>
       </c>
       <c r="AL10">
-        <v>1.38</v>
+        <v>3.82</v>
       </c>
       <c r="AM10">
-        <v>-2.63</v>
+        <v>0.7199999999999998</v>
       </c>
       <c r="AN10">
-        <v>0.791009924109749</v>
+        <v>1.561752988047809</v>
       </c>
       <c r="AO10">
-        <v>20</v>
+        <v>5.052356020942409</v>
       </c>
       <c r="AP10">
-        <v>0.3946717087645635</v>
+        <v>-0.3665338645418325</v>
       </c>
       <c r="AQ10">
-        <v>-10.49429657794677</v>
+        <v>26.80555555555556</v>
       </c>
     </row>
     <row r="11">
@@ -1770,7 +1767,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MTN Zakhele Futhi (RF) Limited (JSE:MTNZ.F)</t>
+          <t>YeboYethu (RF) Limited (JSE:YYLBEE)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1778,6 +1775,9 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D11">
+        <v>1.254</v>
+      </c>
       <c r="G11">
         <v>0</v>
       </c>
@@ -1785,100 +1785,103 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.948529411764706</v>
+        <v>0.9827586206896551</v>
       </c>
       <c r="J11">
-        <v>0.948529411764706</v>
+        <v>0.8668594500218245</v>
       </c>
       <c r="K11">
-        <v>9.32</v>
+        <v>41.8</v>
       </c>
       <c r="L11">
-        <v>0.3426470588235294</v>
+        <v>0.7206896551724138</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>6.24</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.04936708860759494</v>
       </c>
       <c r="O11">
-        <v>-0</v>
+        <v>0.1492822966507177</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>6.24</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.04936708860759494</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>0.1492822966507177</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11">
-        <v>2.39</v>
+        <v>0.232</v>
       </c>
       <c r="V11">
-        <v>0.02053264604810997</v>
+        <v>0.001835443037974683</v>
       </c>
       <c r="W11">
-        <v>0.03053735255570118</v>
+        <v>0.2434478741991846</v>
       </c>
       <c r="X11">
-        <v>0.08242631300953741</v>
+        <v>0.1884347601331108</v>
       </c>
       <c r="Y11">
-        <v>-0.05188896045383623</v>
+        <v>0.05501311406607379</v>
       </c>
       <c r="Z11">
-        <v>0.06561648131618943</v>
+        <v>0.07069187847822325</v>
       </c>
       <c r="AA11">
-        <v>0.06223916242491497</v>
+        <v>0.06127992289864225</v>
       </c>
       <c r="AB11">
-        <v>0.06410197379147746</v>
+        <v>0.0648837664040986</v>
       </c>
       <c r="AC11">
-        <v>-0.001862811366562488</v>
+        <v>-0.003603843505456346</v>
       </c>
       <c r="AD11">
-        <v>90.8</v>
+        <v>574.3</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>90.8</v>
+        <v>574.3</v>
       </c>
       <c r="AG11">
-        <v>88.41</v>
+        <v>574.068</v>
       </c>
       <c r="AH11">
-        <v>0.4382239382239382</v>
+        <v>0.8196089624661054</v>
       </c>
       <c r="AI11">
-        <v>0.2715311004784689</v>
+        <v>0.7498367933150542</v>
       </c>
       <c r="AJ11">
-        <v>0.4316683755675992</v>
+        <v>0.8195492156672396</v>
       </c>
       <c r="AK11">
-        <v>0.2662871600253005</v>
+        <v>0.7497609930152495</v>
       </c>
       <c r="AL11">
-        <v>8.26</v>
+        <v>34.6</v>
       </c>
       <c r="AM11">
-        <v>8.022</v>
+        <v>34.557</v>
       </c>
       <c r="AO11">
-        <v>3.123486682808717</v>
+        <v>1.647398843930636</v>
       </c>
       <c r="AQ11">
-        <v>3.216155572176515</v>
+        <v>1.64944873686952</v>
       </c>
     </row>
     <row r="12">
@@ -1889,7 +1892,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>YeboYethu (RF) Limited (JSE:YYLBEE)</t>
+          <t>Zarclear Holdings Limited (JSE:ZCL)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1897,113 +1900,113 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D12">
-        <v>1.16</v>
-      </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.296229802513465</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.296229802513465</v>
       </c>
       <c r="I12">
-        <v>0.9766666666666667</v>
+        <v>0.2926391382405745</v>
       </c>
       <c r="J12">
-        <v>0.9766666666666667</v>
+        <v>0.2926391382405745</v>
       </c>
       <c r="K12">
-        <v>-23.7</v>
+        <v>2.1</v>
       </c>
       <c r="L12">
-        <v>-0.395</v>
+        <v>0.3770197486535009</v>
       </c>
       <c r="M12">
-        <v>6.63</v>
+        <v>-0</v>
       </c>
       <c r="N12">
-        <v>0.1007598784194529</v>
+        <v>-0</v>
       </c>
       <c r="O12">
-        <v>-0.279746835443038</v>
+        <v>-0</v>
       </c>
       <c r="P12">
-        <v>6.63</v>
+        <v>-0</v>
       </c>
       <c r="Q12">
-        <v>0.1007598784194529</v>
+        <v>-0</v>
       </c>
       <c r="R12">
-        <v>-0.279746835443038</v>
+        <v>-0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
-        <v>0.238</v>
+        <v>82.7</v>
       </c>
       <c r="V12">
-        <v>0.003617021276595745</v>
+        <v>1.37375415282392</v>
       </c>
       <c r="W12">
-        <v>-0.1093677895708353</v>
+        <v>0.02494061757719715</v>
       </c>
       <c r="X12">
-        <v>0.3472052464212323</v>
+        <v>0.05320011504134944</v>
       </c>
       <c r="Y12">
-        <v>-0.4565730359920676</v>
+        <v>-0.02825949746415229</v>
       </c>
       <c r="Z12">
-        <v>0.06523710425541632</v>
+        <v>0.1252811515969411</v>
       </c>
       <c r="AA12">
-        <v>0.06371490515612327</v>
+        <v>0.03666216824111561</v>
       </c>
       <c r="AB12">
-        <v>0.06635027363677479</v>
+        <v>0.05243777881922995</v>
       </c>
       <c r="AC12">
-        <v>-0.002635368480651518</v>
+        <v>-0.01577561057811434</v>
       </c>
       <c r="AD12">
-        <v>649</v>
+        <v>3.91</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>649</v>
+        <v>3.91</v>
       </c>
       <c r="AG12">
-        <v>648.7619999999999</v>
+        <v>-78.79000000000001</v>
       </c>
       <c r="AH12">
-        <v>0.907946278679351</v>
+        <v>0.06098892528466698</v>
       </c>
       <c r="AI12">
-        <v>0.7907883514073352</v>
+        <v>0.05171273641052771</v>
       </c>
       <c r="AJ12">
-        <v>0.9079156182388652</v>
+        <v>4.238300161377084</v>
       </c>
       <c r="AK12">
-        <v>0.7907276631946391</v>
+        <v>11.11283497884344</v>
       </c>
       <c r="AL12">
-        <v>47.8</v>
+        <v>0.502</v>
       </c>
       <c r="AM12">
-        <v>47.701</v>
+        <v>-0.8380000000000001</v>
+      </c>
+      <c r="AN12">
+        <v>2.36969696969697</v>
       </c>
       <c r="AO12">
-        <v>1.225941422594142</v>
+        <v>3.247011952191235</v>
+      </c>
+      <c r="AP12">
+        <v>-47.75151515151516</v>
       </c>
       <c r="AQ12">
-        <v>1.228485775979539</v>
+        <v>-1.945107398568019</v>
       </c>
     </row>
     <row r="13">
@@ -2014,7 +2017,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PSG Konsult Limited (JSE:KST)</t>
+          <t>Sabvest Capital Limited (JSE:SBP)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2023,118 +2026,121 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.112</v>
+        <v>-0.147</v>
       </c>
       <c r="E13">
-        <v>0.174</v>
-      </c>
-      <c r="F13">
-        <v>0.17</v>
+        <v>-0.119</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.188118811881188</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.188118811881188</v>
       </c>
       <c r="I13">
-        <v>0.004263838852139468</v>
+        <v>0.6148514851485148</v>
       </c>
       <c r="J13">
-        <v>0.003029930502645732</v>
+        <v>0.6148514851485148</v>
       </c>
       <c r="K13">
-        <v>41.5</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="L13">
-        <v>0.1336123631680618</v>
+        <v>0.9613861386138615</v>
       </c>
       <c r="M13">
-        <v>43.1</v>
+        <v>2.84</v>
       </c>
       <c r="N13">
-        <v>0.04737825656809937</v>
+        <v>0.03413461538461538</v>
       </c>
       <c r="O13">
-        <v>1.03855421686747</v>
+        <v>0.2924819773429454</v>
       </c>
       <c r="P13">
-        <v>18.1</v>
+        <v>1.79</v>
       </c>
       <c r="Q13">
-        <v>0.01989666923161482</v>
+        <v>0.02151442307692308</v>
       </c>
       <c r="R13">
-        <v>0.436144578313253</v>
+        <v>0.184346035015448</v>
       </c>
       <c r="S13">
-        <v>25</v>
+        <v>1.05</v>
       </c>
       <c r="T13">
-        <v>0.580046403712297</v>
+        <v>0.3697183098591549</v>
       </c>
       <c r="U13">
-        <v>55.9</v>
+        <v>3.2</v>
       </c>
       <c r="V13">
-        <v>0.06144882928437946</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="W13">
-        <v>0.2286501377410468</v>
+        <v>0.0555491990846682</v>
       </c>
       <c r="X13">
-        <v>0.06077408034235669</v>
+        <v>0.05813459996048978</v>
       </c>
       <c r="Y13">
-        <v>0.1678760573986902</v>
+        <v>-0.002585400875821584</v>
       </c>
       <c r="Z13">
-        <v>3.701661867748967</v>
+        <v>0.05345612363713348</v>
       </c>
       <c r="AA13">
-        <v>0.01121577820357317</v>
+        <v>0.03286757700857415</v>
       </c>
       <c r="AB13">
-        <v>0.05979542612618712</v>
+        <v>0.05489343246522081</v>
       </c>
       <c r="AC13">
-        <v>-0.04857964792261395</v>
+        <v>-0.02202585545664666</v>
       </c>
       <c r="AD13">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="AE13">
-        <v>14.52825826262741</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>33.92825826262741</v>
+        <v>19</v>
       </c>
       <c r="AG13">
-        <v>-21.97174173737259</v>
+        <v>15.8</v>
       </c>
       <c r="AH13">
-        <v>0.03595511046383332</v>
+        <v>0.1859099804305284</v>
       </c>
       <c r="AI13">
-        <v>0.1315924735762192</v>
+        <v>0.1070422535211268</v>
       </c>
       <c r="AJ13">
-        <v>-0.02475052645093609</v>
+        <v>0.1595959595959596</v>
       </c>
       <c r="AK13">
-        <v>-0.1088096432189109</v>
+        <v>0.09064830751577739</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AN13">
-        <v>4.586288416075649</v>
+        <v>3.015873015873016</v>
+      </c>
+      <c r="AO13">
+        <v>3.356756756756757</v>
       </c>
       <c r="AP13">
-        <v>-5.194265186140091</v>
+        <v>2.507936507936508</v>
+      </c>
+      <c r="AQ13">
+        <v>3.356756756756757</v>
       </c>
     </row>
     <row r="14">
@@ -2145,7 +2151,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>African Equity Empowerment Investments Limited (JSE:AEE)</t>
+          <t>MTN Zakhele Futhi (RF) Limited (JSE:MTNZF)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2153,119 +2159,107 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D14">
-        <v>0.311</v>
-      </c>
       <c r="G14">
-        <v>-0.007219759341355287</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>-0.007219759341355287</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.03787523158785255</v>
+        <v>0.9139344262295083</v>
       </c>
       <c r="J14">
-        <v>-0.03787523158785255</v>
+        <v>0.4569672131147541</v>
       </c>
       <c r="K14">
-        <v>-94.5</v>
+        <v>2.69</v>
       </c>
       <c r="L14">
-        <v>-0.5984800506649778</v>
+        <v>0.1102459016393443</v>
       </c>
       <c r="M14">
-        <v>14.3</v>
+        <v>-0</v>
       </c>
       <c r="N14">
-        <v>0.3723958333333334</v>
+        <v>-0</v>
       </c>
       <c r="O14">
-        <v>-0.1513227513227513</v>
+        <v>-0</v>
       </c>
       <c r="P14">
-        <v>14.3</v>
+        <v>-0</v>
       </c>
       <c r="Q14">
-        <v>0.3723958333333334</v>
+        <v>-0</v>
       </c>
       <c r="R14">
-        <v>-0.1513227513227513</v>
+        <v>-0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
       <c r="U14">
-        <v>254.9</v>
+        <v>1.33</v>
       </c>
       <c r="V14">
-        <v>6.638020833333334</v>
+        <v>0.01633906633906634</v>
       </c>
       <c r="W14">
-        <v>-0.2825956937799043</v>
+        <v>0.01104269293924466</v>
       </c>
       <c r="X14">
-        <v>0.06888182468788037</v>
+        <v>0.07186415361335872</v>
       </c>
       <c r="Y14">
-        <v>-0.3514775184677847</v>
+        <v>-0.06082146067411406</v>
       </c>
       <c r="Z14">
-        <v>0.4907651376105051</v>
+        <v>0.07349176229631638</v>
       </c>
       <c r="AA14">
-        <v>-0.0185878432422422</v>
+        <v>0.03358332580343966</v>
       </c>
       <c r="AB14">
-        <v>0.0621027775729853</v>
+        <v>0.05799531273721292</v>
       </c>
       <c r="AC14">
-        <v>-0.0806906208152275</v>
+        <v>-0.02441198693377326</v>
       </c>
       <c r="AD14">
-        <v>12.1</v>
+        <v>55.6</v>
       </c>
       <c r="AE14">
-        <v>0.0124953386095813</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>12.11249533860958</v>
+        <v>55.6</v>
       </c>
       <c r="AG14">
-        <v>-242.7875046613904</v>
+        <v>54.27</v>
       </c>
       <c r="AH14">
-        <v>0.2397920605072802</v>
+        <v>0.4058394160583942</v>
       </c>
       <c r="AI14">
-        <v>0.02816777528539421</v>
+        <v>0.5105601469237833</v>
       </c>
       <c r="AJ14">
-        <v>1.187878412937315</v>
+        <v>0.4000147416525393</v>
       </c>
       <c r="AK14">
-        <v>-1.386465906912695</v>
+        <v>0.5045086920145022</v>
       </c>
       <c r="AL14">
-        <v>2.26</v>
+        <v>4.65</v>
       </c>
       <c r="AM14">
-        <v>-14.64</v>
-      </c>
-      <c r="AN14">
-        <v>-10.63268892794376</v>
+        <v>4.534000000000001</v>
       </c>
       <c r="AO14">
-        <v>-2.646017699115045</v>
-      </c>
-      <c r="AP14">
-        <v>213.3457861699389</v>
+        <v>4.795698924731183</v>
       </c>
       <c r="AQ14">
-        <v>0.4084699453551913</v>
+        <v>4.918394353771504</v>
       </c>
     </row>
     <row r="15">
@@ -2285,121 +2279,121 @@
         </is>
       </c>
       <c r="D15">
-        <v>-0.0268</v>
+        <v>-0.14</v>
       </c>
       <c r="E15">
-        <v>-0.283</v>
+        <v>0.6709999999999999</v>
       </c>
       <c r="G15">
-        <v>0.01066941297631308</v>
+        <v>0.07254595228783732</v>
       </c>
       <c r="H15">
-        <v>0.006879505664263645</v>
+        <v>0.06218224481814627</v>
       </c>
       <c r="I15">
-        <v>-0.04175386302594748</v>
+        <v>0.07469691044192414</v>
       </c>
       <c r="J15">
-        <v>-0.04175386302594748</v>
+        <v>0.063749268012076</v>
       </c>
       <c r="K15">
-        <v>4.21</v>
+        <v>132.6</v>
       </c>
       <c r="L15">
-        <v>0.008671472708547888</v>
+        <v>0.5185764567852953</v>
       </c>
       <c r="M15">
-        <v>12.4</v>
+        <v>15.4</v>
       </c>
       <c r="N15">
-        <v>0.02131682998108991</v>
+        <v>0.05484330484330485</v>
       </c>
       <c r="O15">
-        <v>2.945368171021378</v>
+        <v>0.1161387631975867</v>
       </c>
       <c r="P15">
-        <v>12.4</v>
+        <v>-0</v>
       </c>
       <c r="Q15">
-        <v>0.02131682998108991</v>
+        <v>-0</v>
       </c>
       <c r="R15">
-        <v>2.945368171021378</v>
+        <v>-0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>18</v>
+        <v>61.9</v>
       </c>
       <c r="V15">
-        <v>0.03094378545642083</v>
+        <v>0.2204415954415954</v>
       </c>
       <c r="W15">
-        <v>0.007220030869490653</v>
+        <v>0.2463310421697938</v>
       </c>
       <c r="X15">
-        <v>0.07572582137790601</v>
+        <v>0.05123888023031327</v>
       </c>
       <c r="Y15">
-        <v>-0.06850579050841536</v>
+        <v>0.1950921619394805</v>
       </c>
       <c r="Z15">
-        <v>0.537915865368841</v>
+        <v>0.3281149749775439</v>
       </c>
       <c r="AA15">
-        <v>-0.02246006536209459</v>
+        <v>0.02091708947861906</v>
       </c>
       <c r="AB15">
-        <v>0.062291674203109</v>
+        <v>0.05123888023031327</v>
       </c>
       <c r="AC15">
-        <v>-0.0847517395652036</v>
+        <v>-0.03032179075169421</v>
       </c>
       <c r="AD15">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>61.05750249548751</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>320.0575024954875</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>302.0575024954875</v>
+        <v>-61.9</v>
       </c>
       <c r="AH15">
-        <v>0.3549263539363667</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>0.3665938401315574</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>0.3417877660360001</v>
+        <v>-0.2827775239835541</v>
       </c>
       <c r="AK15">
-        <v>0.3532598703758892</v>
+        <v>-0.215304347826087</v>
       </c>
       <c r="AL15">
-        <v>20.9</v>
+        <v>13.1</v>
       </c>
       <c r="AM15">
-        <v>15.71</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="AN15">
-        <v>33.07790549169859</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>-0.8516746411483255</v>
+        <v>1.458015267175573</v>
       </c>
       <c r="AP15">
-        <v>38.57694795600096</v>
+        <v>-2.275735294117647</v>
       </c>
       <c r="AQ15">
-        <v>-1.133036282622534</v>
+        <v>2.034078807241746</v>
       </c>
     </row>
     <row r="16">
@@ -2410,7 +2404,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GAIA Infrastructure Capital Limited (JSE:GAI)</t>
+          <t>Trematon Capital Investments Limited (JSE:TMT)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2418,116 +2412,119 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D16">
+        <v>0.295</v>
+      </c>
       <c r="G16">
-        <v>-1240</v>
+        <v>0.3199095022624434</v>
       </c>
       <c r="H16">
-        <v>-1240</v>
+        <v>0.3199095022624434</v>
       </c>
       <c r="I16">
-        <v>-1070</v>
+        <v>0.3009049773755656</v>
       </c>
       <c r="J16">
-        <v>-1063.910569105691</v>
+        <v>0.1504524886877828</v>
       </c>
       <c r="K16">
-        <v>2.44</v>
+        <v>-0.246</v>
       </c>
       <c r="L16">
-        <v>2440</v>
+        <v>-0.01113122171945701</v>
       </c>
       <c r="M16">
-        <v>1.44</v>
+        <v>0.552</v>
       </c>
       <c r="N16">
-        <v>0.06180257510729614</v>
+        <v>0.01590778097982709</v>
       </c>
       <c r="O16">
-        <v>0.5901639344262295</v>
+        <v>-2.24390243902439</v>
       </c>
       <c r="P16">
-        <v>1.44</v>
+        <v>-0</v>
       </c>
       <c r="Q16">
-        <v>0.06180257510729614</v>
+        <v>-0</v>
       </c>
       <c r="R16">
-        <v>0.5901639344262295</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.552</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>0.629</v>
+        <v>9.44</v>
       </c>
       <c r="V16">
-        <v>0.02699570815450644</v>
+        <v>0.2720461095100864</v>
       </c>
       <c r="W16">
-        <v>0.06387434554973821</v>
+        <v>-0.004155405405405405</v>
       </c>
       <c r="X16">
-        <v>0.05984451672571101</v>
+        <v>0.1106736460575722</v>
       </c>
       <c r="Y16">
-        <v>0.004029828824027207</v>
+        <v>-0.1148290514629776</v>
       </c>
       <c r="Z16">
-        <v>2.74273176083379e-05</v>
+        <v>0.1805998202173736</v>
       </c>
       <c r="AA16">
-        <v>-0.02918021308572932</v>
+        <v>0.02717169240827</v>
       </c>
       <c r="AB16">
-        <v>0.05974106819949154</v>
+        <v>0.06227831143278426</v>
       </c>
       <c r="AC16">
-        <v>-0.08892128128522087</v>
+        <v>-0.03510661902451426</v>
       </c>
       <c r="AD16">
-        <v>0.126</v>
+        <v>68.3</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0.126</v>
+        <v>68.3</v>
       </c>
       <c r="AG16">
-        <v>-0.503</v>
+        <v>58.86</v>
       </c>
       <c r="AH16">
-        <v>0.005378639118927686</v>
+        <v>0.6631067961165048</v>
       </c>
       <c r="AI16">
-        <v>0.003313522326829012</v>
+        <v>0.5306915306915307</v>
       </c>
       <c r="AJ16">
-        <v>-0.02206430670702285</v>
+        <v>0.629115006412997</v>
       </c>
       <c r="AK16">
-        <v>-0.01345027676016793</v>
+        <v>0.49354351836324</v>
       </c>
       <c r="AL16">
-        <v>0.008999999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="AM16">
-        <v>-3.221</v>
+        <v>5.78</v>
       </c>
       <c r="AN16">
-        <v>-0.1188679245283019</v>
+        <v>9.660537482319659</v>
       </c>
       <c r="AO16">
-        <v>-118.8888888888889</v>
+        <v>1.150519031141868</v>
       </c>
       <c r="AP16">
-        <v>0.4745283018867925</v>
+        <v>8.325318246110324</v>
       </c>
       <c r="AQ16">
-        <v>0.332194970506054</v>
+        <v>1.150519031141868</v>
       </c>
     </row>
     <row r="17">
@@ -2538,7 +2535,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Niveus Investments Limited (JSE:NIV)</t>
+          <t>PSG Konsult Limited (JSE:KST)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2547,115 +2544,109 @@
         </is>
       </c>
       <c r="D17">
-        <v>-0.612</v>
+        <v>0.09480000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.115</v>
       </c>
       <c r="G17">
-        <v>-1.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>-1.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>-0.8666666666666667</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>-0.8666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>-4.43</v>
+        <v>39</v>
       </c>
       <c r="L17">
-        <v>-3.691666666666666</v>
+        <v>0.1315789473684211</v>
       </c>
       <c r="M17">
-        <v>-0</v>
+        <v>22.71</v>
       </c>
       <c r="N17">
-        <v>-0</v>
+        <v>0.02743747734686481</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.5823076923076923</v>
       </c>
       <c r="P17">
-        <v>-0</v>
+        <v>17.8</v>
       </c>
       <c r="Q17">
-        <v>-0</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>0.4564102564102565</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>4.91</v>
+      </c>
+      <c r="T17">
+        <v>0.2162043152796125</v>
       </c>
       <c r="U17">
-        <v>14.2</v>
+        <v>95.2</v>
       </c>
       <c r="V17">
-        <v>0.7593582887700535</v>
+        <v>0.1150175184245499</v>
       </c>
       <c r="W17">
-        <v>-0.1406349206349206</v>
+        <v>0.1878612716763006</v>
       </c>
       <c r="X17">
-        <v>0.05985211697075912</v>
+        <v>0.05188825644033102</v>
       </c>
       <c r="Y17">
-        <v>-0.2004870376056797</v>
+        <v>0.1359730152359696</v>
       </c>
       <c r="Z17">
-        <v>0.05359774889454643</v>
+        <v>1.732320280537697</v>
       </c>
       <c r="AA17">
-        <v>-0.04645138237527358</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.05974366613125759</v>
+        <v>0.05148932326455986</v>
       </c>
       <c r="AC17">
-        <v>-0.1061950485065312</v>
+        <v>-0.05148932326455986</v>
       </c>
       <c r="AD17">
-        <v>0.106</v>
+        <v>17.8</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0.106</v>
+        <v>17.8</v>
       </c>
       <c r="AG17">
-        <v>-14.094</v>
+        <v>-77.40000000000001</v>
       </c>
       <c r="AH17">
-        <v>0.005636498989684143</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="AI17">
-        <v>0.003532626807971739</v>
+        <v>0.07447698744769875</v>
       </c>
       <c r="AJ17">
-        <v>-3.059921841076856</v>
+        <v>-0.1031587365053978</v>
       </c>
       <c r="AK17">
-        <v>-0.8916867012526889</v>
+        <v>-0.5382475660639778</v>
       </c>
       <c r="AL17">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>-1.425</v>
-      </c>
-      <c r="AN17">
-        <v>-0.106425702811245</v>
-      </c>
-      <c r="AO17">
-        <v>-208</v>
-      </c>
-      <c r="AP17">
-        <v>14.15060240963855</v>
-      </c>
-      <c r="AQ17">
-        <v>0.7298245614035088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2666,7 +2657,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RH Bophelo Limited (JSE:RHB)</t>
+          <t>Stellar Capital Partners Limited (JSE:SCP)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2675,31 +2666,31 @@
         </is>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I18">
-        <v>-29.72222222222222</v>
+        <v>4.251497005988024</v>
       </c>
       <c r="J18">
-        <v>-24.70290654893304</v>
+        <v>4.251497005988024</v>
       </c>
       <c r="K18">
-        <v>1.25</v>
+        <v>-1.8</v>
       </c>
       <c r="L18">
-        <v>34.72222222222222</v>
+        <v>5.389221556886227</v>
       </c>
       <c r="M18">
-        <v>-0</v>
+        <v>6.84</v>
       </c>
       <c r="N18">
-        <v>-0</v>
+        <v>0.1624703087885986</v>
       </c>
       <c r="O18">
-        <v>-0</v>
+        <v>-3.8</v>
       </c>
       <c r="P18">
         <v>-0</v>
@@ -2708,37 +2699,40 @@
         <v>-0</v>
       </c>
       <c r="R18">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>6.84</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>17.4</v>
+        <v>23.1</v>
       </c>
       <c r="V18">
-        <v>0.4496124031007751</v>
+        <v>0.5486935866983373</v>
       </c>
       <c r="W18">
-        <v>0.03387533875338754</v>
+        <v>-0.01971522453450164</v>
       </c>
       <c r="X18">
-        <v>0.05968687854452819</v>
+        <v>0.05123888023031327</v>
       </c>
       <c r="Y18">
-        <v>-0.02581153979114065</v>
+        <v>-0.07095410476481491</v>
       </c>
       <c r="Z18">
-        <v>0.003214285714285714</v>
+        <v>-0.003875159531268129</v>
       </c>
       <c r="AA18">
-        <v>-0.0794021996215705</v>
+        <v>-0.0164752291449124</v>
       </c>
       <c r="AB18">
-        <v>0.05968687854452819</v>
+        <v>0.05123888023031327</v>
       </c>
       <c r="AC18">
-        <v>-0.1390890781660987</v>
+        <v>-0.06771410937522568</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -2750,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>-17.4</v>
+        <v>-23.1</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2759,19 +2753,16 @@
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>-0.816901408450704</v>
+        <v>-1.215789473684211</v>
       </c>
       <c r="AK18">
-        <v>-0.8285714285714285</v>
+        <v>-0.5422535211267606</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>-1.53</v>
-      </c>
-      <c r="AQ18">
-        <v>0.6993464052287582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2782,7 +2773,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Zarclear Holdings Limited (JSE:ZCL)</t>
+          <t>Mahube Infrastructure Limited (JSE:MHB)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2790,107 +2781,101 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="G19">
-        <v>-4.178403755868545</v>
-      </c>
-      <c r="H19">
-        <v>-4.178403755868545</v>
-      </c>
-      <c r="I19">
-        <v>9.436619718309858</v>
-      </c>
-      <c r="J19">
-        <v>9.436619718309858</v>
-      </c>
       <c r="K19">
-        <v>-6.66</v>
-      </c>
-      <c r="L19">
-        <v>7.816901408450705</v>
+        <v>3.47</v>
       </c>
       <c r="M19">
-        <v>-0</v>
+        <v>1.3</v>
       </c>
       <c r="N19">
-        <v>-0</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.3746397694524495</v>
       </c>
       <c r="P19">
-        <v>-0</v>
+        <v>1.3</v>
       </c>
       <c r="Q19">
-        <v>-0</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>0.3746397694524495</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
       <c r="U19">
-        <v>34.4</v>
+        <v>0.3</v>
       </c>
       <c r="V19">
-        <v>0.5051395007342144</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="W19">
-        <v>-0.07449664429530201</v>
+        <v>0.09155672823218998</v>
       </c>
       <c r="X19">
-        <v>0.0637362798241536</v>
+        <v>0.05136680414478918</v>
       </c>
       <c r="Y19">
-        <v>-0.1382329241194556</v>
+        <v>0.0401899240874008</v>
       </c>
       <c r="Z19">
-        <v>-0.0111957950065703</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>-0.1056504599211563</v>
+        <v>-0.02397028282126017</v>
       </c>
       <c r="AB19">
-        <v>0.06005510319690592</v>
+        <v>0.05130911135926929</v>
       </c>
       <c r="AC19">
-        <v>-0.1657055631180623</v>
+        <v>-0.07527939418052945</v>
       </c>
       <c r="AD19">
-        <v>9.460000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>9.460000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="AG19">
-        <v>-24.94</v>
+        <v>-0.214</v>
       </c>
       <c r="AH19">
-        <v>0.1219700876740588</v>
+        <v>0.004218581379378005</v>
       </c>
       <c r="AI19">
-        <v>0.105863921217547</v>
+        <v>0.002376609738572929</v>
       </c>
       <c r="AJ19">
-        <v>-0.5778498609823911</v>
+        <v>-0.01065418699591755</v>
       </c>
       <c r="AK19">
-        <v>-0.4537845705967976</v>
+        <v>-0.005963328317449701</v>
       </c>
       <c r="AL19">
-        <v>0.23</v>
+        <v>0.013</v>
       </c>
       <c r="AM19">
-        <v>-0.9099999999999999</v>
+        <v>-1.827</v>
+      </c>
+      <c r="AN19">
+        <v>-0.09630459126539753</v>
       </c>
       <c r="AO19">
-        <v>-34.95652173913043</v>
+        <v>-69.15384615384616</v>
+      </c>
+      <c r="AP19">
+        <v>0.2396416573348264</v>
       </c>
       <c r="AQ19">
-        <v>8.835164835164836</v>
+        <v>0.492063492063492</v>
       </c>
     </row>
     <row r="20">
@@ -2901,7 +2886,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Purple Group Limited (JSE:PPE)</t>
+          <t>Ninety One Group (LSE:N91)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2909,116 +2894,119 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D20">
-        <v>0.00957</v>
+      <c r="F20">
+        <v>0.0287</v>
       </c>
       <c r="G20">
-        <v>-0.07279752704791345</v>
+        <v>0.3155216284987277</v>
       </c>
       <c r="H20">
-        <v>-0.1434312210200928</v>
+        <v>0.3155216284987277</v>
       </c>
       <c r="I20">
-        <v>-0.1484331100361513</v>
+        <v>0.3264631043256997</v>
       </c>
       <c r="J20">
-        <v>-0.1484331100361513</v>
+        <v>0.2534978482897715</v>
       </c>
       <c r="K20">
-        <v>-0.627</v>
+        <v>201.6</v>
       </c>
       <c r="L20">
-        <v>-0.09690880989180835</v>
+        <v>0.2564885496183206</v>
       </c>
       <c r="M20">
-        <v>-0</v>
+        <v>178.3</v>
       </c>
       <c r="N20">
-        <v>-0</v>
+        <v>0.06218176745483713</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.8844246031746031</v>
       </c>
       <c r="P20">
-        <v>-0</v>
+        <v>153.1</v>
       </c>
       <c r="Q20">
-        <v>-0</v>
+        <v>0.05339331798842156</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>0.7594246031746031</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>25.19999999999999</v>
+      </c>
+      <c r="T20">
+        <v>0.1413348289399887</v>
       </c>
       <c r="U20">
-        <v>4.58</v>
+        <v>274.7</v>
       </c>
       <c r="V20">
-        <v>0.1892561983471074</v>
+        <v>0.09580107414382366</v>
       </c>
       <c r="W20">
-        <v>-0.03426229508196721</v>
+        <v>0.8125755743651754</v>
       </c>
       <c r="X20">
-        <v>0.06551314781877653</v>
+        <v>0.0527331996539621</v>
       </c>
       <c r="Y20">
-        <v>-0.09977544290074374</v>
+        <v>0.7598423747112133</v>
       </c>
       <c r="Z20">
-        <v>2.931832258615454</v>
+        <v>-3.414422241529106</v>
       </c>
       <c r="AA20">
-        <v>-0.4351809802506058</v>
+        <v>-0.8655486913803667</v>
       </c>
       <c r="AB20">
-        <v>0.06090936940121366</v>
+        <v>0.05216581330497536</v>
       </c>
       <c r="AC20">
-        <v>-0.4960903496518194</v>
+        <v>-0.9177145046853421</v>
       </c>
       <c r="AD20">
-        <v>4.41</v>
+        <v>141.9</v>
       </c>
       <c r="AE20">
-        <v>0.4268111096694946</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>4.836811109669495</v>
+        <v>141.9</v>
       </c>
       <c r="AG20">
-        <v>0.2568111096694947</v>
+        <v>-132.8</v>
       </c>
       <c r="AH20">
-        <v>0.1665751480560755</v>
+        <v>0.04715382314824045</v>
       </c>
       <c r="AI20">
-        <v>0.1987446542553693</v>
+        <v>0.335223245924876</v>
       </c>
       <c r="AJ20">
-        <v>0.01050059668523012</v>
+        <v>-0.04856286111314269</v>
       </c>
       <c r="AK20">
-        <v>0.012998611377309</v>
+        <v>-0.8936742934051143</v>
       </c>
       <c r="AL20">
-        <v>0.479</v>
+        <v>4.53</v>
       </c>
       <c r="AM20">
-        <v>0.24</v>
+        <v>-7.97</v>
       </c>
       <c r="AN20">
-        <v>-5.491905354919053</v>
+        <v>0.5436781609195402</v>
       </c>
       <c r="AO20">
-        <v>-2.087682672233821</v>
+        <v>56.64459161147903</v>
       </c>
       <c r="AP20">
-        <v>-0.3198145824028577</v>
+        <v>-0.5088122605363984</v>
       </c>
       <c r="AQ20">
-        <v>-4.166666666666667</v>
+        <v>-32.19573400250941</v>
       </c>
     </row>
   </sheetData>
